--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Inhbb</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhbb</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H2">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I2">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J2">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>30.45259453138725</v>
+        <v>42.17603842403</v>
       </c>
       <c r="R2">
-        <v>121.810378125549</v>
+        <v>168.70415369612</v>
       </c>
       <c r="S2">
-        <v>0.05370578187872475</v>
+        <v>0.2022111739863655</v>
       </c>
       <c r="T2">
-        <v>0.0351833799060981</v>
+        <v>0.1478899768560933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H3">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I3">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J3">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>75.05360275431516</v>
+        <v>74.91738000424334</v>
       </c>
       <c r="R3">
-        <v>450.321616525891</v>
+        <v>449.50428002546</v>
       </c>
       <c r="S3">
-        <v>0.1323635138733804</v>
+        <v>0.3591881060599902</v>
       </c>
       <c r="T3">
-        <v>0.1300696768039627</v>
+        <v>0.3940458851382095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H4">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I4">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J4">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>16.90281212224</v>
+        <v>24.06053129040999</v>
       </c>
       <c r="R4">
-        <v>101.41687273344</v>
+        <v>144.36318774246</v>
       </c>
       <c r="S4">
-        <v>0.02980956975729755</v>
+        <v>0.1153571663145454</v>
       </c>
       <c r="T4">
-        <v>0.0292929750090039</v>
+        <v>0.1265521211324821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H5">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I5">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J5">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>49.7476643610775</v>
+        <v>25.239061342735</v>
       </c>
       <c r="R5">
-        <v>198.99065744431</v>
+        <v>100.95624537094</v>
       </c>
       <c r="S5">
-        <v>0.0877343048191936</v>
+        <v>0.1210075771725522</v>
       </c>
       <c r="T5">
-        <v>0.05747592287589275</v>
+        <v>0.08850058794805937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H6">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I6">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J6">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>30.11676750089216</v>
+        <v>10.74652479953667</v>
       </c>
       <c r="R6">
-        <v>180.700605005353</v>
+        <v>64.47914879721999</v>
       </c>
       <c r="S6">
-        <v>0.05311352189147935</v>
+        <v>0.05152374374615954</v>
       </c>
       <c r="T6">
-        <v>0.05219307363624073</v>
+        <v>0.05652391843592629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.8515055</v>
+        <v>2.84633</v>
       </c>
       <c r="H7">
-        <v>5.703011</v>
+        <v>5.69266</v>
       </c>
       <c r="I7">
-        <v>0.387259194802113</v>
+        <v>0.9066958542586908</v>
       </c>
       <c r="J7">
-        <v>0.3342184077626661</v>
+        <v>0.8764918033190737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>17.31273409739983</v>
+        <v>11.97384711511</v>
       </c>
       <c r="R7">
-        <v>103.876404584399</v>
+        <v>71.84308269066001</v>
       </c>
       <c r="S7">
-        <v>0.0305325025820373</v>
+        <v>0.05740808697907798</v>
       </c>
       <c r="T7">
-        <v>0.03000337953146789</v>
+        <v>0.06297931380830289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.649071</v>
       </c>
       <c r="I8">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J8">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>2.3105801461815</v>
+        <v>3.205911171687</v>
       </c>
       <c r="R8">
-        <v>13.863480877089</v>
+        <v>19.235467030122</v>
       </c>
       <c r="S8">
-        <v>0.004074907746078431</v>
+        <v>0.0153706010793436</v>
       </c>
       <c r="T8">
-        <v>0.004004290291397124</v>
+        <v>0.01686225686550072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.649071</v>
       </c>
       <c r="I9">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J9">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
         <v>5.694666319638999</v>
@@ -1013,10 +1013,10 @@
         <v>51.25199687675099</v>
       </c>
       <c r="S9">
-        <v>0.01004303613340496</v>
+        <v>0.02730282892806572</v>
       </c>
       <c r="T9">
-        <v>0.01480348805093045</v>
+        <v>0.04492869005219753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.649071</v>
       </c>
       <c r="I10">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J10">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>1.28249506176</v>
+        <v>1.828904016189</v>
       </c>
       <c r="R10">
-        <v>11.54245555584</v>
+        <v>16.460136145701</v>
       </c>
       <c r="S10">
-        <v>0.002261790862398696</v>
+        <v>0.008768600419598607</v>
       </c>
       <c r="T10">
-        <v>0.003333891620070375</v>
+        <v>0.01442933739509848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.649071</v>
       </c>
       <c r="I11">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J11">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>3.774586939485</v>
+        <v>1.9184871729315</v>
       </c>
       <c r="R11">
-        <v>22.64752163691</v>
+        <v>11.510923037589</v>
       </c>
       <c r="S11">
-        <v>0.006656810231565841</v>
+        <v>0.009198102951633114</v>
       </c>
       <c r="T11">
-        <v>0.006541448848157331</v>
+        <v>0.01009074231027935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.649071</v>
       </c>
       <c r="I12">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J12">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>2.285099385636999</v>
+        <v>0.8168715033229998</v>
       </c>
       <c r="R12">
-        <v>20.565894470733</v>
+        <v>7.351843529906999</v>
       </c>
       <c r="S12">
-        <v>0.004029970223054031</v>
+        <v>0.003916454741961698</v>
       </c>
       <c r="T12">
-        <v>0.005940197291947781</v>
+        <v>0.00644479667907887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.649071</v>
       </c>
       <c r="I13">
-        <v>0.02938315833856914</v>
+        <v>0.06892032720726253</v>
       </c>
       <c r="J13">
-        <v>0.03803806027113071</v>
+        <v>0.09993665725199019</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>1.313597750771</v>
+        <v>0.910163487819</v>
       </c>
       <c r="R13">
-        <v>11.822379756939</v>
+        <v>8.191471390370999</v>
       </c>
       <c r="S13">
-        <v>0.002316643142067179</v>
+        <v>0.004363739086659794</v>
       </c>
       <c r="T13">
-        <v>0.003414744168627659</v>
+        <v>0.00718083394983522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H14">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I14">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J14">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>23.22432766504575</v>
+        <v>1.1342423841315</v>
       </c>
       <c r="R14">
-        <v>92.897310660183</v>
+        <v>4.536969536526001</v>
       </c>
       <c r="S14">
-        <v>0.04095810866208518</v>
+        <v>0.005438075567326109</v>
       </c>
       <c r="T14">
-        <v>0.02683220776019001</v>
+        <v>0.003977212801542669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H15">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I15">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J15">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>57.2387834150495</v>
+        <v>2.0147569777555</v>
       </c>
       <c r="R15">
-        <v>343.432700490297</v>
+        <v>12.088541866533</v>
       </c>
       <c r="S15">
-        <v>0.1009455405818973</v>
+        <v>0.009659664325823443</v>
       </c>
       <c r="T15">
-        <v>0.09919617161908277</v>
+        <v>0.0105970963826162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H16">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I16">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J16">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>12.89073897408</v>
+        <v>0.6470611132304999</v>
       </c>
       <c r="R16">
-        <v>77.34443384448001</v>
+        <v>3.882366679383</v>
       </c>
       <c r="S16">
-        <v>0.02273393207544142</v>
+        <v>0.003102306243933891</v>
       </c>
       <c r="T16">
-        <v>0.02233995691867611</v>
+        <v>0.003403372743240433</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H17">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I17">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J17">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>37.9394949911925</v>
+        <v>0.6787553829217501</v>
       </c>
       <c r="R17">
-        <v>151.75797996477</v>
+        <v>2.715021531687</v>
       </c>
       <c r="S17">
-        <v>0.06690957778608476</v>
+        <v>0.00325426303557169</v>
       </c>
       <c r="T17">
-        <v>0.04383336416031229</v>
+        <v>0.002380050891978838</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H18">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I18">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J18">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>22.9682129689085</v>
+        <v>0.2890068476135</v>
       </c>
       <c r="R18">
-        <v>137.809277813451</v>
+        <v>1.734041085681</v>
       </c>
       <c r="S18">
-        <v>0.04050642826445909</v>
+        <v>0.001385630707144077</v>
       </c>
       <c r="T18">
-        <v>0.03980445878674026</v>
+        <v>0.001520100663856837</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.1746685</v>
+        <v>0.0765465</v>
       </c>
       <c r="H19">
-        <v>4.349337</v>
+        <v>0.153093</v>
       </c>
       <c r="I19">
-        <v>0.2953388560083503</v>
+        <v>0.02438381853404661</v>
       </c>
       <c r="J19">
-        <v>0.2548878981582274</v>
+        <v>0.02357153942893602</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>13.2033613438555</v>
+        <v>0.3220132901655</v>
       </c>
       <c r="R19">
-        <v>79.220168063133</v>
+        <v>1.932079740993</v>
       </c>
       <c r="S19">
-        <v>0.02328526863838249</v>
+        <v>0.001543878654247397</v>
       </c>
       <c r="T19">
-        <v>0.022881738913226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H20">
-        <v>6.190555</v>
-      </c>
-      <c r="I20">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J20">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.6794795</v>
-      </c>
-      <c r="N20">
-        <v>21.358959</v>
-      </c>
-      <c r="O20">
-        <v>0.1386817475209803</v>
-      </c>
-      <c r="P20">
-        <v>0.1052706227093344</v>
-      </c>
-      <c r="Q20">
-        <v>22.0373017387075</v>
-      </c>
-      <c r="R20">
-        <v>132.223810432245</v>
-      </c>
-      <c r="S20">
-        <v>0.0388646858695344</v>
-      </c>
-      <c r="T20">
-        <v>0.03819116750688279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H21">
-        <v>6.190555</v>
-      </c>
-      <c r="I21">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J21">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>26.32069366666667</v>
-      </c>
-      <c r="N21">
-        <v>78.962081</v>
-      </c>
-      <c r="O21">
-        <v>0.3417956646349414</v>
-      </c>
-      <c r="P21">
-        <v>0.3891756820777129</v>
-      </c>
-      <c r="Q21">
-        <v>54.31323392721722</v>
-      </c>
-      <c r="R21">
-        <v>488.8191053449549</v>
-      </c>
-      <c r="S21">
-        <v>0.09578608126203564</v>
-      </c>
-      <c r="T21">
-        <v>0.1411891872709268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H22">
-        <v>6.190555</v>
-      </c>
-      <c r="I22">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J22">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>5.92768</v>
-      </c>
-      <c r="N22">
-        <v>17.78304</v>
-      </c>
-      <c r="O22">
-        <v>0.07697575721224656</v>
-      </c>
-      <c r="P22">
-        <v>0.08764620478296729</v>
-      </c>
-      <c r="Q22">
-        <v>12.23187635413333</v>
-      </c>
-      <c r="R22">
-        <v>110.0868871872</v>
-      </c>
-      <c r="S22">
-        <v>0.0215719709125451</v>
-      </c>
-      <c r="T22">
-        <v>0.0317971985161635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H23">
-        <v>6.190555</v>
-      </c>
-      <c r="I23">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J23">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>17.446105</v>
-      </c>
-      <c r="N23">
-        <v>34.89221</v>
-      </c>
-      <c r="O23">
-        <v>0.2265518959828062</v>
-      </c>
-      <c r="P23">
-        <v>0.1719711468337415</v>
-      </c>
-      <c r="Q23">
-        <v>36.00035751275833</v>
-      </c>
-      <c r="R23">
-        <v>216.00214507655</v>
-      </c>
-      <c r="S23">
-        <v>0.06348974128110958</v>
-      </c>
-      <c r="T23">
-        <v>0.06238947491754308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H24">
-        <v>6.190555</v>
-      </c>
-      <c r="I24">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J24">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>10.56170766666667</v>
-      </c>
-      <c r="N24">
-        <v>31.685123</v>
-      </c>
-      <c r="O24">
-        <v>0.1371523842542203</v>
-      </c>
-      <c r="P24">
-        <v>0.1561645691080663</v>
-      </c>
-      <c r="Q24">
-        <v>21.79427740147388</v>
-      </c>
-      <c r="R24">
-        <v>196.148496613265</v>
-      </c>
-      <c r="S24">
-        <v>0.03843609145097878</v>
-      </c>
-      <c r="T24">
-        <v>0.05665500083450624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.063518333333333</v>
-      </c>
-      <c r="H25">
-        <v>6.190555</v>
-      </c>
-      <c r="I25">
-        <v>0.2802436987149647</v>
-      </c>
-      <c r="J25">
-        <v>0.362790363768755</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N25">
-        <v>18.214309</v>
-      </c>
-      <c r="O25">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P25">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q25">
-        <v>12.52852018349944</v>
-      </c>
-      <c r="R25">
-        <v>112.756681651495</v>
-      </c>
-      <c r="S25">
-        <v>0.02209512793876123</v>
-      </c>
-      <c r="T25">
-        <v>0.03256833472273264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.171751</v>
-      </c>
-      <c r="I26">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J26">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.6794795</v>
-      </c>
-      <c r="N26">
-        <v>21.358959</v>
-      </c>
-      <c r="O26">
-        <v>0.1386817475209803</v>
-      </c>
-      <c r="P26">
-        <v>0.1052706227093344</v>
-      </c>
-      <c r="Q26">
-        <v>0.6114037612014999</v>
-      </c>
-      <c r="R26">
-        <v>3.668422567208999</v>
-      </c>
-      <c r="S26">
-        <v>0.001078263364557524</v>
-      </c>
-      <c r="T26">
-        <v>0.001059577244766362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.171751</v>
-      </c>
-      <c r="I27">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J27">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>26.32069366666667</v>
-      </c>
-      <c r="N27">
-        <v>78.962081</v>
-      </c>
-      <c r="O27">
-        <v>0.3417956646349414</v>
-      </c>
-      <c r="P27">
-        <v>0.3891756820777129</v>
-      </c>
-      <c r="Q27">
-        <v>1.506868485981222</v>
-      </c>
-      <c r="R27">
-        <v>13.561816373831</v>
-      </c>
-      <c r="S27">
-        <v>0.002657492784223043</v>
-      </c>
-      <c r="T27">
-        <v>0.003917158332810055</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.171751</v>
-      </c>
-      <c r="I28">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J28">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>5.92768</v>
-      </c>
-      <c r="N28">
-        <v>17.78304</v>
-      </c>
-      <c r="O28">
-        <v>0.07697575721224656</v>
-      </c>
-      <c r="P28">
-        <v>0.08764620478296729</v>
-      </c>
-      <c r="Q28">
-        <v>0.3393616558933333</v>
-      </c>
-      <c r="R28">
-        <v>3.05425490304</v>
-      </c>
-      <c r="S28">
-        <v>0.0005984936045638126</v>
-      </c>
-      <c r="T28">
-        <v>0.0008821827190533963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.171751</v>
-      </c>
-      <c r="I29">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J29">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>17.446105</v>
-      </c>
-      <c r="N29">
-        <v>34.89221</v>
-      </c>
-      <c r="O29">
-        <v>0.2265518959828062</v>
-      </c>
-      <c r="P29">
-        <v>0.1719711468337415</v>
-      </c>
-      <c r="Q29">
-        <v>0.9987953266183331</v>
-      </c>
-      <c r="R29">
-        <v>5.992771959709999</v>
-      </c>
-      <c r="S29">
-        <v>0.001761461864852481</v>
-      </c>
-      <c r="T29">
-        <v>0.00173093603183607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.171751</v>
-      </c>
-      <c r="I30">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J30">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>10.56170766666667</v>
-      </c>
-      <c r="N30">
-        <v>31.685123</v>
-      </c>
-      <c r="O30">
-        <v>0.1371523842542203</v>
-      </c>
-      <c r="P30">
-        <v>0.1561645691080663</v>
-      </c>
-      <c r="Q30">
-        <v>0.6046612844858887</v>
-      </c>
-      <c r="R30">
-        <v>5.441951560372999</v>
-      </c>
-      <c r="S30">
-        <v>0.001066372424249046</v>
-      </c>
-      <c r="T30">
-        <v>0.001571838558631218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.05725033333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.171751</v>
-      </c>
-      <c r="I31">
-        <v>0.007775092136002976</v>
-      </c>
-      <c r="J31">
-        <v>0.01006527003922063</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N31">
-        <v>18.214309</v>
-      </c>
-      <c r="O31">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P31">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q31">
-        <v>0.3475917538954444</v>
-      </c>
-      <c r="R31">
-        <v>3.128325785059</v>
-      </c>
-      <c r="S31">
-        <v>0.0006130080935570687</v>
-      </c>
-      <c r="T31">
-        <v>0.0009035771521235259</v>
+        <v>0.001693705945701046</v>
       </c>
     </row>
   </sheetData>
